--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/KANSAS_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/KANSAS_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1003"/>
+  <dimension ref="A1:D997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -394,7 +394,7 @@
         <v>73</v>
       </c>
       <c r="D2">
-        <v>0.009123859517560305</v>
+        <v>0.009123859517560303</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C28">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C42">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C84">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C87">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C106">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C113">
@@ -2081,7 +2081,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C130">
@@ -2242,7 +2242,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2299,7 +2299,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C146">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C160">
@@ -2668,7 +2668,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C174">
@@ -2707,7 +2707,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C177">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C184">
@@ -2811,7 +2811,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C185">
@@ -2824,7 +2824,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C186">
@@ -2837,7 +2837,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C187">
@@ -2967,12 +2967,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C197">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C202">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C212">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C217">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C227">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C233">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C238">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C245">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C250">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C251">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C263">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C268">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -3985,7 +3985,7 @@
         <v>73</v>
       </c>
       <c r="D274">
-        <v>0.009123859517560305</v>
+        <v>0.009123859517560303</v>
       </c>
     </row>
     <row r="275">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C280">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C285">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C286">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C287">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C288">
@@ -4212,7 +4212,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C292">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C300">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C304">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C307">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C312">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C317">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C321">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C326">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C328">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C330">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C343">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C345">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C350">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C359">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C368">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C375">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C377">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C379">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C384">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C386">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C392">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C393">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C396">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C401">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C406">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C407">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C420">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C425">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C428">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C432">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C442">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C445">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C448">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C452">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C453">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C455">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C462">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C467">
@@ -6728,7 +6728,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C484">
@@ -7430,7 +7430,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C538">
@@ -7708,7 +7708,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C559">
@@ -7734,7 +7734,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C561">
@@ -7830,7 +7830,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C568">
@@ -7895,7 +7895,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C573">
@@ -8108,7 +8108,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C589">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C592">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C594">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C596">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C604">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C611">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C621">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C635">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C637">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C639">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C642">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C662">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C676">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C679">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C680">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C694">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C706">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C708">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C711">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C715">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C723">
@@ -9891,7 +9891,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C725">
@@ -9917,7 +9917,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C727">
@@ -9930,7 +9930,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C728">
@@ -9956,7 +9956,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C730">
@@ -9982,7 +9982,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C732">
@@ -10096,7 +10096,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C740">
@@ -10187,7 +10187,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C747">
@@ -10226,7 +10226,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C750">
@@ -10291,7 +10291,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C755">
@@ -10317,7 +10317,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C757">
@@ -10395,7 +10395,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C763">
@@ -11208,7 +11208,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C824">
@@ -11356,7 +11356,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C835">
@@ -11369,7 +11369,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C836">
@@ -11395,7 +11395,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C838">
@@ -11434,7 +11434,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C841">
@@ -11621,7 +11621,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C855">
@@ -11699,7 +11699,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C861">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C870">
@@ -11959,7 +11959,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C881">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C883">
@@ -11998,7 +11998,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C884">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C885">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C893">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C895">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C897">
@@ -12193,7 +12193,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C899">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C903">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C912">
@@ -12375,7 +12375,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C913">
@@ -12401,7 +12401,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C915">
@@ -12440,7 +12440,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C918">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C920">
@@ -12648,7 +12648,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C934">
@@ -12892,7 +12892,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C952">
@@ -12918,7 +12918,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C954">
@@ -12944,7 +12944,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C956">
@@ -13152,7 +13152,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C972">
@@ -13165,7 +13165,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C973">
@@ -13178,7 +13178,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C974">
@@ -13321,7 +13321,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C985">
@@ -13334,7 +13334,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C986">
@@ -13386,7 +13386,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C990">
@@ -13471,7 +13471,7 @@
         <v>751</v>
       </c>
       <c r="D996">
-        <v>0.09386326709161355</v>
+        <v>0.09386326709161356</v>
       </c>
     </row>
     <row r="997">
@@ -13485,41 +13485,6 @@
       </c>
       <c r="D997">
         <v>1</v>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
